--- a/2valuesTest.xlsx
+++ b/2valuesTest.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -364,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,8 +395,6 @@
         <v>66642</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
